--- a/number.xlsx
+++ b/number.xlsx
@@ -428,7 +428,7 @@
         <v>19310192533</v>
       </c>
       <c r="B2" t="str">
-        <v>暂无数据</v>
+        <v>暂无数据哦</v>
       </c>
       <c r="C2">
         <v>20240302</v>
@@ -484,7 +484,7 @@
         <v>19313196328</v>
       </c>
       <c r="B6" t="str">
-        <v>暂无数据</v>
+        <v>暂无数据哦</v>
       </c>
       <c r="C6">
         <v>20240302</v>
@@ -497,6 +497,9 @@
       <c r="A7">
         <v>19313195934</v>
       </c>
+      <c r="B7" t="str">
+        <v>中风险</v>
+      </c>
       <c r="C7">
         <v>20240302</v>
       </c>
@@ -508,6 +511,9 @@
       <c r="A8">
         <v>19311561419</v>
       </c>
+      <c r="B8" t="str">
+        <v>中风险</v>
+      </c>
       <c r="C8">
         <v>20240302</v>
       </c>
@@ -519,6 +525,9 @@
       <c r="A9">
         <v>19311562664</v>
       </c>
+      <c r="B9" t="str">
+        <v>暂无风险</v>
+      </c>
       <c r="C9">
         <v>20240302</v>
       </c>
@@ -529,6 +538,9 @@
     <row r="10">
       <c r="A10">
         <v>19311561846</v>
+      </c>
+      <c r="B10" t="str">
+        <v>中风险</v>
       </c>
       <c r="C10">
         <v>20240302</v>
